--- a/data/trans_dic/P37_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P37_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no duerme las horas de sueño recomendadas por la Soc Esp Sueño para su edad</t>
+          <t>Población que no duerme las horas de sueño recomendadas por la Soc Esp Sueño para su edad (tasa de respuesta: 99,03%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>38,86%</t>
+          <t>35,17%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>43,83%</t>
+          <t>44,84%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>41,91%</t>
+          <t>45,7%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>39,92%</t>
+          <t>47,88%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>39,04%</t>
+          <t>37,38%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>38,2%</t>
+          <t>37,16%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>39,43%</t>
+          <t>37,6%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>41,28%</t>
+          <t>38,7%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>39,97%</t>
+          <t>36,38%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>40,73%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>41,51%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>43,12%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>32,45; 45,3</t>
+          <t>27,01; 43,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>37,36; 51,01</t>
+          <t>36,98; 56,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>34,81; 50,34</t>
+          <t>37,09; 59,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>34,98; 45,58</t>
+          <t>37,99; 63,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>33,55; 44,04</t>
+          <t>30,87; 44,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>30,8; 43,75</t>
+          <t>30,06; 43,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>35,51; 43,69</t>
+          <t>31,16; 44,81</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>36,72; 45,84</t>
+          <t>31,72; 45,98</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>35,12; 45,48</t>
+          <t>31,38; 41,99</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>35,48; 47,39</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>36,52; 50,4</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>37,33; 52,8</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>29,9%</t>
+          <t>35,61%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>27,01%</t>
+          <t>30,76%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>30,01%</t>
+          <t>35,34%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>33,24%</t>
+          <t>36,72%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>40,64%</t>
+          <t>32,55%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>39,68%</t>
+          <t>40,18%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>31,65%</t>
+          <t>39,44%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>33,92%</t>
+          <t>50,71%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>34,84%</t>
+          <t>33,96%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>35,58%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>37,44%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>43,86%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>23,56; 37,94</t>
+          <t>27,06; 45,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>21,43; 33,23</t>
+          <t>22,56; 40,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>23,82; 36,55</t>
+          <t>26,94; 44,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>26,7; 39,21</t>
+          <t>28,44; 46,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>34,53; 47,78</t>
+          <t>25,34; 40,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>33,6; 46,51</t>
+          <t>32,74; 48,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>26,67; 36,18</t>
+          <t>31,89; 47,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>29,77; 38,7</t>
+          <t>42,16; 61,23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>30,66; 40,05</t>
+          <t>28,29; 40,58</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>29,78; 41,44</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>31,91; 43,26</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>37,12; 50,79</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>30,37%</t>
+          <t>42,23%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>45,47%</t>
+          <t>51,24%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>27,61%</t>
+          <t>22,86%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>26,54%</t>
+          <t>51,63%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>25,66%</t>
+          <t>24,53%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>39,95%</t>
+          <t>32,03%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>28,56%</t>
+          <t>43,73%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>36,08%</t>
+          <t>34,2%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>33,31%</t>
+          <t>33,69%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>42,14%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>32,46%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>43,22%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,47; 55,22</t>
+          <t>16,0; 75,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>29,38; 63,78</t>
+          <t>27,85; 79,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,27; 42,72</t>
+          <t>7,97; 44,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,86; 38,67</t>
+          <t>25,92; 83,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,45; 37,88</t>
+          <t>12,38; 39,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>26,81; 52,79</t>
+          <t>17,6; 50,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>19,57; 42,34</t>
+          <t>25,68; 60,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>27,12; 47,8</t>
+          <t>19,95; 51,65</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>24,96; 44,17</t>
+          <t>19,45; 56,8</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>28,78; 62,95</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>18,62; 45,93</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>28,91; 64,56</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>34,24%</t>
+          <t>36,17%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>37,11%</t>
+          <t>39,71%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>35,35%</t>
+          <t>38,98%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>35,95%</t>
+          <t>43,91%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>38,33%</t>
+          <t>34,22%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>38,96%</t>
+          <t>37,92%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>35,14%</t>
+          <t>38,91%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>37,74%</t>
+          <t>42,94%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>37,18%</t>
+          <t>35,12%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>38,78%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>38,94%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>43,42%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>29,62; 39,33</t>
+          <t>30,31; 43,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>32,55; 42,5</t>
+          <t>33,37; 46,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>30,59; 40,53</t>
+          <t>32,86; 48,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>32,31; 39,74</t>
+          <t>37,01; 53,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>34,49; 42,21</t>
+          <t>29,63; 39,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>34,22; 42,87</t>
+          <t>33,22; 42,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>32,24; 38,23</t>
+          <t>33,88; 43,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>34,97; 40,82</t>
+          <t>37,61; 49,44</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>34,06; 40,39</t>
+          <t>31,31; 39,32</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>34,78; 43,2</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>35,11; 44,08</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>38,9; 48,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no duerme las horas de sueño recomendadas por la Soc Esp Sueño para su edad (tasa de respuesta: 99,03%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>147762</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>163310</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>171318</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>247002</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>189317</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>155728</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>151372</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>215084</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>337080</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>319039</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>322690</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>462086</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>113473; 183614</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>134655; 205652</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>139038; 224753</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>195998; 325532</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>156346; 225975</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>125972; 183654</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>125423; 180402</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>176302; 255530</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>290748; 389037</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>277848; 371192</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>283921; 391818</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>400073; 565804</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>124277</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>95807</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>111055</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>151421</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>132806</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>130802</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>130345</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>217513</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>257084</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>226609</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>241400</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>368934</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>94442; 157214</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>70257; 124780</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>84645; 138259</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>117266; 189748</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>103370; 166800</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>106573; 158148</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>105416; 157632</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>180835; 262616</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>214154; 307177</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>189668; 263947</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>205755; 278879</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>312266; 427268</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>42974</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>40791</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>19567</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>61647</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>23263</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>22938</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>31878</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>38080</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>66237</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>63729</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>51445</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>99726</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>16287; 76938</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>22172; 63518</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6820; 37821</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>30943; 99549</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>11747; 37640</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>12605; 36183</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>18716; 44391</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>22210; 57510</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>38242; 111688</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>43517; 95200</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>29505; 72788</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>66710; 148973</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>166.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>245.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>266.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>273.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>292.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>315014</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>299907</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>301940</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>460070</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>345387</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>309468</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>313595</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>470676</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>660400</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>609376</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>615535</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>930746</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>263933; 380834</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>251987; 351352</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>254575; 371993</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>387752; 564498</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>299028; 398054</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>271164; 349463</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>273061; 352816</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>412196; 541900</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>588654; 739276</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>546487; 678786</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>554983; 696793</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>833815; 1047022</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
